--- a/excels/Nace_Reports.xlsx
+++ b/excels/Nace_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="4155" windowWidth="15030" windowHeight="5655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -989,7 +989,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1592,7 +1592,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>32</v>
@@ -1633,7 +1633,7 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>32</v>
@@ -1674,7 +1674,7 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>32</v>
@@ -1715,7 +1715,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>32</v>
@@ -1756,7 +1756,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>32</v>
@@ -1797,7 +1797,7 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
@@ -1838,7 +1838,7 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>32</v>
@@ -1879,7 +1879,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>32</v>
@@ -1923,7 +1923,7 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2083,7 +2083,7 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>32</v>
@@ -2124,7 +2124,7 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>32</v>
@@ -2165,7 +2165,7 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>32</v>
@@ -2206,7 +2206,7 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>32</v>
@@ -2247,7 +2247,7 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>32</v>
@@ -2288,7 +2288,7 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
@@ -2329,7 +2329,7 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>32</v>
@@ -2370,7 +2370,7 @@
         <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>32</v>
@@ -2414,7 +2414,7 @@
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2574,7 +2574,7 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>32</v>
@@ -2615,7 +2615,7 @@
         <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>32</v>
@@ -2656,7 +2656,7 @@
         <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>32</v>
@@ -2697,7 +2697,7 @@
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>32</v>
@@ -2738,7 +2738,7 @@
         <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>32</v>
@@ -2779,7 +2779,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
@@ -2820,7 +2820,7 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>32</v>
@@ -2861,7 +2861,7 @@
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>32</v>
@@ -2905,7 +2905,7 @@
         <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
@@ -3442,7 +3442,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3556,7 +3556,7 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>32</v>
@@ -3597,7 +3597,7 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>32</v>
@@ -3638,7 +3638,7 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>32</v>
@@ -3679,7 +3679,7 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>32</v>
@@ -3720,7 +3720,7 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>32</v>
@@ -3761,7 +3761,7 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
@@ -3802,7 +3802,7 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>32</v>
@@ -3843,7 +3843,7 @@
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>32</v>
@@ -3887,7 +3887,7 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
@@ -3933,7 +3933,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M9"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4050,7 +4050,7 @@
         <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>32</v>
@@ -4094,7 +4094,7 @@
         <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>32</v>
@@ -4138,7 +4138,7 @@
         <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>32</v>
@@ -4182,7 +4182,7 @@
         <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>32</v>
@@ -4226,7 +4226,7 @@
         <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>32</v>
@@ -4270,7 +4270,7 @@
         <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
@@ -4314,7 +4314,7 @@
         <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>32</v>
@@ -4358,7 +4358,7 @@
         <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>32</v>
@@ -4402,7 +4402,7 @@
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>

--- a/excels/Nace_Reports.xlsx
+++ b/excels/Nace_Reports.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Seeking_or_Unreported" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G17"/>
 </workbook>
 </file>
 
@@ -117,9 +116,6 @@
     <t>sGraduationTerm</t>
   </si>
   <si>
-    <t>Validating mba standard report</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -180,216 +176,6 @@
     <t>T1_TH1_TCN</t>
   </si>
   <si>
-    <t>Auto_Data_NACE1_1</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_2</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_3</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_4</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_5</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_6</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_7</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_8</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_9</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE1_10</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_1</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_2</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_3</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_4</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_5</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_6</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_7</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_8</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_9</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE2_10</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_1</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_2</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_3</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_4</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_5</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_6</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_7</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_8</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_9</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE3_10</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_1</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_2</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_3</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_4</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_5</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_6</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_7</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_8</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_9</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE4_10</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_1</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_2</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_3</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_4</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_5</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_6</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_7</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_8</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_9</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE5_10</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_1</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_2</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_3</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_4</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_5</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_6</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_7</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_8</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_9</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE6_10</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_1</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_2</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_3</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_4</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_5</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_6</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_7</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_8</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_9</t>
-  </si>
-  <si>
-    <t>Auto_Data_NACE7_10</t>
-  </si>
-  <si>
     <t>sDepartment</t>
   </si>
   <si>
@@ -400,6 +186,219 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Validating NACE report</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_5</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_6</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_7</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_8</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_9</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table1_10</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_5</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_6</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_7</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_8</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_9</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table2_10</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_5</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_6</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_7</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_8</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_9</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table3_10</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_5</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_6</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_7</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_8</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_9</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table4_10</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_5</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_6</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_7</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_8</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_9</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table5_10</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_5</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_6</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_7</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_8</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_9</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table6_10</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_5</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_6</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_7</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_8</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_9</t>
+  </si>
+  <si>
+    <t>Auto_Data_NACE_Table7_10</t>
   </si>
 </sst>
 </file>
@@ -847,7 +846,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,7 +988,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1028,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>29</v>
@@ -1037,435 +1036,435 @@
         <v>30</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="N11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1479,6 +1478,988 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1519,7 +2500,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>29</v>
@@ -1528,1417 +2509,435 @@
         <v>30</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="N11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +2991,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>29</v>
@@ -3001,435 +3000,435 @@
         <v>30</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="N11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3483,7 +3482,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>29</v>
@@ -3492,435 +3491,435 @@
         <v>30</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="N11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +3973,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>29</v>
@@ -3983,459 +3982,459 @@
         <v>30</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="N11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excels/Nace_Reports.xlsx
+++ b/excels/Nace_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5955" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Validating NACE report</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>Auto_Data_NACE_Table7_10</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -546,6 +546,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1053,10 +1065,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1071,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>39</v>
@@ -1083,7 +1095,7 @@
         <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>42</v>
@@ -1094,13 +1106,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -1112,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>39</v>
@@ -1124,7 +1136,7 @@
         <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>46</v>
@@ -1135,13 +1147,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>31</v>
@@ -1153,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>39</v>
@@ -1165,7 +1177,7 @@
         <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>44</v>
@@ -1176,13 +1188,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>31</v>
@@ -1194,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -1206,7 +1218,7 @@
         <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>47</v>
@@ -1217,13 +1229,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -1235,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>39</v>
@@ -1258,13 +1270,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
@@ -1276,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>39</v>
@@ -1288,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>42</v>
@@ -1299,13 +1311,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -1317,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>39</v>
@@ -1329,7 +1341,7 @@
         <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>42</v>
@@ -1340,13 +1352,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -1358,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>32</v>
@@ -1370,7 +1382,7 @@
         <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>42</v>
@@ -1381,10 +1393,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1399,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>39</v>
@@ -1411,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>42</v>
@@ -1425,10 +1437,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1443,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>39</v>
@@ -1455,7 +1467,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>42</v>
@@ -1476,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1544,10 +1556,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1562,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>39</v>
@@ -1574,7 +1586,7 @@
         <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>42</v>
@@ -1585,13 +1597,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -1603,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>39</v>
@@ -1615,7 +1627,7 @@
         <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>46</v>
@@ -1626,13 +1638,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>31</v>
@@ -1644,7 +1656,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>39</v>
@@ -1656,7 +1668,7 @@
         <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>44</v>
@@ -1667,13 +1679,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>31</v>
@@ -1685,7 +1697,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -1697,7 +1709,7 @@
         <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>47</v>
@@ -1708,13 +1720,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -1726,7 +1738,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>39</v>
@@ -1749,13 +1761,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
@@ -1767,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>39</v>
@@ -1779,7 +1791,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>42</v>
@@ -1790,13 +1802,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -1808,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>39</v>
@@ -1820,7 +1832,7 @@
         <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>42</v>
@@ -1831,13 +1843,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -1849,7 +1861,7 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>32</v>
@@ -1861,7 +1873,7 @@
         <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>42</v>
@@ -1872,13 +1884,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>31</v>
@@ -1890,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>39</v>
@@ -1902,7 +1914,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>42</v>
@@ -1916,13 +1928,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -1934,7 +1946,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>39</v>
@@ -1946,7 +1958,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>42</v>
@@ -1968,7 +1980,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2035,10 +2047,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2053,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>39</v>
@@ -2065,7 +2077,7 @@
         <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>42</v>
@@ -2076,13 +2088,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -2094,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>39</v>
@@ -2106,7 +2118,7 @@
         <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>46</v>
@@ -2117,13 +2129,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>31</v>
@@ -2135,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>39</v>
@@ -2147,7 +2159,7 @@
         <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>44</v>
@@ -2158,13 +2170,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>31</v>
@@ -2176,7 +2188,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -2188,7 +2200,7 @@
         <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>47</v>
@@ -2199,13 +2211,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -2217,7 +2229,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>39</v>
@@ -2240,13 +2252,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
@@ -2258,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>39</v>
@@ -2270,7 +2282,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>42</v>
@@ -2281,13 +2293,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -2299,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>39</v>
@@ -2311,7 +2323,7 @@
         <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>42</v>
@@ -2322,13 +2334,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -2340,7 +2352,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>32</v>
@@ -2352,7 +2364,7 @@
         <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>42</v>
@@ -2363,13 +2375,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>31</v>
@@ -2381,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>39</v>
@@ -2393,7 +2405,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>42</v>
@@ -2407,13 +2419,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -2425,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>39</v>
@@ -2437,7 +2449,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>42</v>
@@ -2459,6 +2471,1479 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="20" customFormat="1" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="36.75">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2526,10 +4011,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2541,10 +4026,10 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>39</v>
@@ -2556,10 +4041,13 @@
         <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>50</v>
@@ -2567,10 +4055,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2582,10 +4070,10 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>39</v>
@@ -2597,21 +4085,24 @@
         <v>42</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M3" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="N3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2623,10 +4114,10 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>39</v>
@@ -2638,21 +4129,24 @@
         <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="M4" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="N4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2664,10 +4158,10 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -2679,24 +4173,27 @@
         <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="M5" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="N5" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -2705,10 +4202,10 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>39</v>
@@ -2724,6 +4221,9 @@
       </c>
       <c r="L6" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>50</v>
@@ -2731,13 +4231,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
@@ -2746,10 +4246,10 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>39</v>
@@ -2761,10 +4261,13 @@
         <v>45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="N7" s="16" t="s">
         <v>50</v>
@@ -2772,13 +4275,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -2787,10 +4290,10 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>39</v>
@@ -2802,10 +4305,13 @@
         <v>42</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>50</v>
@@ -2813,13 +4319,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -2828,10 +4334,10 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>32</v>
@@ -2843,10 +4349,13 @@
         <v>42</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>50</v>
@@ -2854,13 +4363,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>31</v>
@@ -2869,10 +4378,10 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>39</v>
@@ -2884,7 +4393,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>42</v>
@@ -2898,13 +4407,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -2913,10 +4422,10 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>39</v>
@@ -2928,1504 +4437,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>42</v>

--- a/excels/Nace_Reports.xlsx
+++ b/excels/Nace_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5955" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14790" windowHeight="5655" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="Seeking_or_Unreported" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:G17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="127">
   <si>
     <t>TCID</t>
   </si>
@@ -399,6 +400,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -858,7 +862,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2470,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2585,7 +2589,7 @@
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -2626,7 +2630,7 @@
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>31</v>
@@ -2667,7 +2671,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>31</v>
@@ -2708,7 +2712,7 @@
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -2749,7 +2753,7 @@
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
@@ -2790,7 +2794,7 @@
         <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -2831,7 +2835,7 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -2872,7 +2876,7 @@
         <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>31</v>
@@ -2916,7 +2920,7 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -3452,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3567,7 +3571,7 @@
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -3608,7 +3612,7 @@
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>31</v>
@@ -3649,7 +3653,7 @@
         <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>31</v>
@@ -3690,7 +3694,7 @@
         <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -3731,7 +3735,7 @@
         <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
@@ -3772,7 +3776,7 @@
         <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -3813,7 +3817,7 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -3854,7 +3858,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>31</v>
@@ -3898,7 +3902,7 @@
         <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -3943,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/excels/Nace_Reports.xlsx
+++ b/excels/Nace_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14790" windowHeight="5655" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5955" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="Seeking_or_Unreported" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="126">
   <si>
     <t>TCID</t>
   </si>
@@ -400,9 +399,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -862,7 +858,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2474,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2589,7 +2585,7 @@
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -2630,7 +2626,7 @@
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>31</v>
@@ -2671,7 +2667,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>31</v>
@@ -2712,7 +2708,7 @@
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -2753,7 +2749,7 @@
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
@@ -2794,7 +2790,7 @@
         <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -2835,7 +2831,7 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -2876,7 +2872,7 @@
         <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>31</v>
@@ -2920,7 +2916,7 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -3456,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3571,7 +3567,7 @@
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -3612,7 +3608,7 @@
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>31</v>
@@ -3653,7 +3649,7 @@
         <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>31</v>
@@ -3694,7 +3690,7 @@
         <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -3735,7 +3731,7 @@
         <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>31</v>
@@ -3776,7 +3772,7 @@
         <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>31</v>
@@ -3817,7 +3813,7 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -3858,7 +3854,7 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>31</v>
@@ -3902,7 +3898,7 @@
         <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -3947,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
